--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 0 (22, 10, 50, 39, 48)/Ableson 0 (8, 45, 1, 2, 24)/NCDE_32nodes_Uniform0.05Virtual_Nelson(22, 10, 50, 39, 48)_Ableson(8, 45, 1, 2, 24)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 0 (22, 10, 50, 39, 48)/Ableson 0 (8, 45, 1, 2, 24)/NCDE_32nodes_Uniform0.05Virtual_Nelson(22, 10, 50, 39, 48)_Ableson(8, 45, 1, 2, 24)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.3761037896803579</v>
+        <v>0.3754574605433065</v>
       </c>
       <c r="E2">
-        <v>0.3761037896803579</v>
+        <v>0.3754574605433065</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.3172766284518395</v>
+        <v>0.3172054871708445</v>
       </c>
       <c r="E3">
-        <v>0.3172766284518395</v>
+        <v>0.3172054871708445</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.003012909139043914</v>
+        <v>0.002998188921254697</v>
       </c>
       <c r="E4">
-        <v>0.003012909139043914</v>
+        <v>0.002998188921254697</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>7.809211603404839E-15</v>
+        <v>7.48909733850698E-15</v>
       </c>
       <c r="E5">
-        <v>7.809211603404839E-15</v>
+        <v>7.48909733850698E-15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6764034430889888</v>
+        <v>0.6817466841128406</v>
       </c>
       <c r="E6">
-        <v>0.6764034430889888</v>
+        <v>0.6817466841128406</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9525344950836777</v>
+        <v>0.1004979671864193</v>
       </c>
       <c r="E7">
-        <v>0.04746550491632229</v>
+        <v>0.8995020328135808</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9517878311657985</v>
+        <v>0.9999997473473775</v>
       </c>
       <c r="E8">
-        <v>0.04821216883420154</v>
+        <v>2.526526224899683E-07</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9508254048234327</v>
+        <v>0.5775780280966436</v>
       </c>
       <c r="E9">
-        <v>0.0491745951765673</v>
+        <v>0.4224219719033564</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9503065216859665</v>
+        <v>0.00761718701365999</v>
       </c>
       <c r="E10">
-        <v>0.04969347831403348</v>
+        <v>0.99238281298634</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9540208887786208</v>
+        <v>0.9956277316222051</v>
       </c>
       <c r="E11">
-        <v>0.04597911122137921</v>
+        <v>0.004372268377794919</v>
       </c>
       <c r="F11">
-        <v>0.2231220901012421</v>
+        <v>0.9728466272354126</v>
       </c>
       <c r="G11">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.0001407462552484748</v>
+        <v>0.0001406487130089631</v>
       </c>
       <c r="E12">
-        <v>0.0001407462552484748</v>
+        <v>0.0001406487130089631</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.09949506173570093</v>
+        <v>0.09909819165592877</v>
       </c>
       <c r="E13">
-        <v>0.09949506173570093</v>
+        <v>0.09909819165592877</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.1502973867369097</v>
+        <v>0.149456476801289</v>
       </c>
       <c r="E14">
-        <v>0.1502973867369097</v>
+        <v>0.149456476801289</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>7.086359209282587E-14</v>
+        <v>7.112495171131203E-14</v>
       </c>
       <c r="E15">
-        <v>7.086359209282587E-14</v>
+        <v>7.112495171131203E-14</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5829298667898941</v>
+        <v>0.5834470176022701</v>
       </c>
       <c r="E16">
-        <v>0.5829298667898941</v>
+        <v>0.5834470176022701</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -672,13 +672,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.9977697682296426</v>
+        <v>0.0002866432735851267</v>
       </c>
       <c r="E17">
-        <v>0.002230231770357416</v>
+        <v>0.9997133567264149</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.997610277833367</v>
+        <v>0.99999999996588</v>
       </c>
       <c r="E18">
-        <v>0.002389722166633024</v>
+        <v>3.412004012659509E-11</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9976117649365397</v>
+        <v>0.02339736043789168</v>
       </c>
       <c r="E19">
-        <v>0.002388235063460309</v>
+        <v>0.9766026395621084</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9974609421224596</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0.002539057877540385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9978653614793869</v>
+        <v>0.9961457873023433</v>
       </c>
       <c r="E21">
-        <v>0.00213463852061313</v>
+        <v>0.003854212697656734</v>
       </c>
       <c r="F21">
-        <v>0.1154006347060204</v>
+        <v>1.305838823318481</v>
       </c>
       <c r="G21">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
